--- a/www.eia.gov/electricity/monthly/xls/table_a_1_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_1_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.1.B. Relative Standard Error (Percent) for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Total (All Sectors) by Census Division and State, Year-to-Date through October 2016</t>
+    <t>Total (All Sectors) by Census Division and State, Year-to-Date through November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8">
         <v>4</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1317,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>883</v>
+        <v>989</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,13 +1392,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>389</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <v>2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,25 +1470,25 @@
         <v>20</v>
       </c>
       <c r="B14" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="6">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="C15" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" s="6">
         <v>8</v>
@@ -1508,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1522,25 +1522,25 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="C16" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="8">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -1560,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="8">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <v>15</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="8">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D18" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="8">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1606,19 +1606,19 @@
         <v>4</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,16 +1626,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="8">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="C20" s="8">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,22 +1655,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="6">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="E21" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D22" s="8">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="E22" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>408</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="8">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="8">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,16 +1811,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="8">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F27" s="8">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
@@ -1837,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="8">
-        <v>121</v>
+        <v>508</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="6">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C29" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="8">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1915,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="8">
-        <v>1089</v>
+        <v>3091</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -1938,16 +1938,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="8">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="C32" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C33" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="8">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2042,16 +2042,16 @@
         <v>42</v>
       </c>
       <c r="B36" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C36" s="8">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="8">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D37" s="8">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="C38" s="8">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2120,10 +2120,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="6">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="C39" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
       </c>
       <c r="H39" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,25 +2146,25 @@
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C40" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
       </c>
       <c r="E40" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="8">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="C41" s="8">
         <v>3</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="8">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="8">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
       </c>
       <c r="E43" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2250,16 +2250,16 @@
         <v>50</v>
       </c>
       <c r="B44" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C44" s="6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E44" s="6">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6">
         <v>4</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2279,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="8">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="8">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="8">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2308,13 +2308,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="8">
+        <v>2</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
         <v>7</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
-        <v>6</v>
       </c>
       <c r="G46" s="8">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="8">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="C47" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="8">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2357,22 +2357,22 @@
         <v>0</v>
       </c>
       <c r="C48" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D48" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
       <c r="F48" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" s="8">
         <v>0</v>
       </c>
       <c r="H48" s="8">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="6">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D49" s="6">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="8">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C51" s="8">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2458,16 +2458,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="8">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="C53" s="8">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D53" s="8">
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" s="8">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="8">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,22 +2565,22 @@
         <v>1</v>
       </c>
       <c r="C56" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56" s="8">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="G56" s="8">
         <v>0</v>
       </c>
       <c r="H56" s="8">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,22 +2591,22 @@
         <v>3</v>
       </c>
       <c r="C57" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="8">
         <v>0</v>
       </c>
       <c r="E57" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57" s="8">
         <v>0</v>
       </c>
       <c r="H57" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="C59" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
       </c>
       <c r="E59" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="8">
+        <v>8</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
         <v>7</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="8">
-        <v>55</v>
+        <v>13658</v>
       </c>
       <c r="D60" s="8">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D61" s="8">
         <v>0</v>
@@ -2718,25 +2718,25 @@
         <v>68</v>
       </c>
       <c r="B62" s="6">
+        <v>5</v>
+      </c>
+      <c r="C62" s="6">
         <v>6</v>
       </c>
-      <c r="C62" s="6">
-        <v>5</v>
-      </c>
       <c r="D62" s="6">
         <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="6">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="H62" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,16 +2744,16 @@
         <v>69</v>
       </c>
       <c r="B63" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C63" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8">
         <v>0</v>
       </c>
       <c r="E63" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="8">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,10 +2770,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="8">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G64" s="8">
         <v>0</v>
       </c>
       <c r="H64" s="8">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2799,16 +2799,16 @@
         <v>0.23</v>
       </c>
       <c r="C65" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="F65" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
